--- a/doc/Game_Sample_001.xlsx
+++ b/doc/Game_Sample_001.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Commands" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="55">
   <si>
     <t xml:space="preserve">Command Title</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t xml:space="preserve">Constant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image</t>
   </si>
   <si>
     <t xml:space="preserve">SYMBOL1</t>
@@ -450,58 +453,40 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" lang="bg-BG" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" lang="bg-BG" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Free Spins Wins Histogram</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:areaChart>
-        <c:grouping val="standard"/>
+        <c:grouping val="stacked"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Paytable!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5 of</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="004586"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln w="0">
               <a:noFill/>
             </a:ln>
           </c:spPr>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -518,67 +503,54 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Simulation Results'!$A$27:$S$27</c:f>
+              <c:f>Paytable!$A$2:$A$14</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v/>
+                  <c:v>SYMBOL1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>SYMBOL2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
+                  <c:v>SYMBOL3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>SYMBOL4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v/>
+                  <c:v>SYMBOL5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v/>
+                  <c:v>SYMBOL6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v/>
+                  <c:v>SYMBOL7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>SYMBOL8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>SYMBOL9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v/>
+                  <c:v>WILD</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v/>
+                  <c:v>SCATTER</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v/>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="18">
                   <c:v/>
                 </c:pt>
               </c:strCache>
@@ -586,159 +558,72 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Simulation Results'!$A$28:$S$28</c:f>
+              <c:f>Paytable!$B$2:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="82134182"/>
-        <c:axId val="61250466"/>
-      </c:areaChart>
-      <c:catAx>
-        <c:axId val="82134182"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" lang="bg-BG" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="61250466"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="61250466"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" lang="bg-BG" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="82134182"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:areaChart>
-        <c:grouping val="stacked"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Paytable!$B$1</c:f>
+              <c:f>Paytable!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5 of</c:v>
+                  <c:v>4 of</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="004586"/>
+              <a:srgbClr val="ff420e"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln w="0">
               <a:noFill/>
             </a:ln>
           </c:spPr>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -755,6 +640,11 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -805,36 +695,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Paytable!$B$2:$B$14</c:f>
+              <c:f>Paytable!$C$2:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="6">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -847,31 +737,30 @@
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Paytable!$C$1</c:f>
+              <c:f>Paytable!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4 of</c:v>
+                  <c:v>3 of</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ff420e"/>
+              <a:srgbClr val="ffd320"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln w="0">
               <a:noFill/>
             </a:ln>
           </c:spPr>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -888,6 +777,11 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -938,36 +832,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Paytable!$C$2:$C$14</c:f>
+              <c:f>Paytable!$D$2:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="6">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -980,31 +874,30 @@
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="3"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Paytable!$D$1</c:f>
+              <c:f>Paytable!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3 of</c:v>
+                  <c:v>2 of</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ffd320"/>
+              <a:srgbClr val="579d1c"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln w="0">
               <a:noFill/>
             </a:ln>
           </c:spPr>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -1021,139 +914,11 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Paytable!$A$2:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>SYMBOL1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>SYMBOL2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>SYMBOL3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>SYMBOL4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>SYMBOL5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>SYMBOL6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>SYMBOL7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>SYMBOL8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>SYMBOL9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>WILD</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>SCATTER</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Paytable!$D$2:$D$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Paytable!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2 of</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="579d1c"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" lang="bg-BG" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1245,22 +1010,22 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="16446315"/>
-        <c:axId val="39458466"/>
+        <c:axId val="28526507"/>
+        <c:axId val="78734739"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="16446315"/>
+        <c:axId val="28526507"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln>
+          <a:ln w="0">
             <a:solidFill>
               <a:srgbClr val="b3b3b3"/>
             </a:solidFill>
@@ -1280,14 +1045,15 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39458466"/>
+        <c:crossAx val="78734739"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39458466"/>
+        <c:axId val="78734739"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1295,7 +1061,7 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln>
+            <a:ln w="0">
               <a:solidFill>
                 <a:srgbClr val="b3b3b3"/>
               </a:solidFill>
@@ -1307,7 +1073,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln>
+          <a:ln w="0">
             <a:solidFill>
               <a:srgbClr val="b3b3b3"/>
             </a:solidFill>
@@ -1327,12 +1093,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16446315"/>
+        <c:crossAx val="28526507"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:solidFill>
             <a:srgbClr val="b3b3b3"/>
           </a:solidFill>
@@ -1344,7 +1111,7 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -1377,11 +1144,12 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:doughnutChart>
         <c:varyColors val="1"/>
@@ -1403,7 +1171,7 @@
             <a:solidFill>
               <a:srgbClr val="004586"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln w="0">
               <a:noFill/>
             </a:ln>
           </c:spPr>
@@ -1414,7 +1182,7 @@
               <a:solidFill>
                 <a:srgbClr val="004586"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -1425,7 +1193,7 @@
               <a:solidFill>
                 <a:srgbClr val="ff420e"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -1436,7 +1204,7 @@
               <a:solidFill>
                 <a:srgbClr val="ffd320"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -1447,7 +1215,7 @@
               <a:solidFill>
                 <a:srgbClr val="579d1c"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -1458,7 +1226,7 @@
               <a:solidFill>
                 <a:srgbClr val="7e0021"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -1469,7 +1237,7 @@
               <a:solidFill>
                 <a:srgbClr val="83caff"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -1480,7 +1248,7 @@
               <a:solidFill>
                 <a:srgbClr val="314004"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -1491,7 +1259,7 @@
               <a:solidFill>
                 <a:srgbClr val="aecf00"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -1502,7 +1270,7 @@
               <a:solidFill>
                 <a:srgbClr val="4b1f6f"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -1513,18 +1281,16 @@
               <a:solidFill>
                 <a:srgbClr val="ff950e"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
           </c:dPt>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -1543,9 +1309,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -1564,9 +1329,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -1585,9 +1349,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -1606,9 +1369,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -1627,9 +1389,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -1648,9 +1409,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -1669,9 +1429,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -1690,9 +1449,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="8"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -1711,9 +1469,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -1731,7 +1488,7 @@
               <c:separator>; </c:separator>
             </c:dLbl>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -1845,7 +1602,7 @@
             <a:solidFill>
               <a:srgbClr val="ff420e"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln w="0">
               <a:noFill/>
             </a:ln>
           </c:spPr>
@@ -1856,7 +1613,7 @@
               <a:solidFill>
                 <a:srgbClr val="004586"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -1867,7 +1624,7 @@
               <a:solidFill>
                 <a:srgbClr val="ff420e"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -1878,7 +1635,7 @@
               <a:solidFill>
                 <a:srgbClr val="ffd320"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -1889,7 +1646,7 @@
               <a:solidFill>
                 <a:srgbClr val="579d1c"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -1900,7 +1657,7 @@
               <a:solidFill>
                 <a:srgbClr val="7e0021"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -1911,7 +1668,7 @@
               <a:solidFill>
                 <a:srgbClr val="83caff"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -1922,7 +1679,7 @@
               <a:solidFill>
                 <a:srgbClr val="314004"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -1933,7 +1690,7 @@
               <a:solidFill>
                 <a:srgbClr val="aecf00"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -1944,7 +1701,7 @@
               <a:solidFill>
                 <a:srgbClr val="4b1f6f"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -1955,18 +1712,16 @@
               <a:solidFill>
                 <a:srgbClr val="ff950e"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
           </c:dPt>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -1985,9 +1740,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -2006,9 +1760,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -2027,9 +1780,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -2048,9 +1800,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -2069,9 +1820,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -2090,9 +1840,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -2111,9 +1860,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -2132,9 +1880,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="8"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -2153,9 +1900,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -2173,7 +1919,7 @@
               <c:separator>; </c:separator>
             </c:dLbl>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -2287,7 +2033,7 @@
             <a:solidFill>
               <a:srgbClr val="ffd320"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln w="0">
               <a:noFill/>
             </a:ln>
           </c:spPr>
@@ -2298,7 +2044,7 @@
               <a:solidFill>
                 <a:srgbClr val="004586"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -2309,7 +2055,7 @@
               <a:solidFill>
                 <a:srgbClr val="ff420e"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -2320,7 +2066,7 @@
               <a:solidFill>
                 <a:srgbClr val="ffd320"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -2331,7 +2077,7 @@
               <a:solidFill>
                 <a:srgbClr val="579d1c"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -2342,7 +2088,7 @@
               <a:solidFill>
                 <a:srgbClr val="7e0021"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -2353,7 +2099,7 @@
               <a:solidFill>
                 <a:srgbClr val="83caff"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -2364,7 +2110,7 @@
               <a:solidFill>
                 <a:srgbClr val="314004"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -2375,7 +2121,7 @@
               <a:solidFill>
                 <a:srgbClr val="aecf00"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -2386,7 +2132,7 @@
               <a:solidFill>
                 <a:srgbClr val="4b1f6f"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -2397,18 +2143,16 @@
               <a:solidFill>
                 <a:srgbClr val="ff950e"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
           </c:dPt>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -2427,9 +2171,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -2448,9 +2191,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -2469,9 +2211,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -2490,9 +2231,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -2511,9 +2251,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -2532,9 +2271,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -2553,9 +2291,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -2574,9 +2311,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="8"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -2595,9 +2331,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -2615,7 +2350,7 @@
               <c:separator>; </c:separator>
             </c:dLbl>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -2729,7 +2464,7 @@
             <a:solidFill>
               <a:srgbClr val="579d1c"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln w="0">
               <a:noFill/>
             </a:ln>
           </c:spPr>
@@ -2740,7 +2475,7 @@
               <a:solidFill>
                 <a:srgbClr val="004586"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -2751,7 +2486,7 @@
               <a:solidFill>
                 <a:srgbClr val="ff420e"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -2762,7 +2497,7 @@
               <a:solidFill>
                 <a:srgbClr val="ffd320"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -2773,7 +2508,7 @@
               <a:solidFill>
                 <a:srgbClr val="579d1c"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -2784,7 +2519,7 @@
               <a:solidFill>
                 <a:srgbClr val="7e0021"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -2795,7 +2530,7 @@
               <a:solidFill>
                 <a:srgbClr val="83caff"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -2806,7 +2541,7 @@
               <a:solidFill>
                 <a:srgbClr val="314004"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -2817,7 +2552,7 @@
               <a:solidFill>
                 <a:srgbClr val="aecf00"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -2828,7 +2563,7 @@
               <a:solidFill>
                 <a:srgbClr val="4b1f6f"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -2839,18 +2574,16 @@
               <a:solidFill>
                 <a:srgbClr val="ff950e"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
           </c:dPt>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -2869,9 +2602,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -2890,9 +2622,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -2911,9 +2642,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -2932,9 +2662,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -2953,9 +2682,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -2974,9 +2702,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -2995,9 +2722,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -3016,9 +2742,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="8"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -3037,9 +2762,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -3057,7 +2781,7 @@
               <c:separator>; </c:separator>
             </c:dLbl>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -3171,7 +2895,7 @@
             <a:solidFill>
               <a:srgbClr val="7e0021"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln w="0">
               <a:noFill/>
             </a:ln>
           </c:spPr>
@@ -3182,7 +2906,7 @@
               <a:solidFill>
                 <a:srgbClr val="004586"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -3193,7 +2917,7 @@
               <a:solidFill>
                 <a:srgbClr val="ff420e"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -3204,7 +2928,7 @@
               <a:solidFill>
                 <a:srgbClr val="ffd320"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -3215,7 +2939,7 @@
               <a:solidFill>
                 <a:srgbClr val="579d1c"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -3226,7 +2950,7 @@
               <a:solidFill>
                 <a:srgbClr val="7e0021"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -3237,7 +2961,7 @@
               <a:solidFill>
                 <a:srgbClr val="83caff"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -3248,7 +2972,7 @@
               <a:solidFill>
                 <a:srgbClr val="314004"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -3259,7 +2983,7 @@
               <a:solidFill>
                 <a:srgbClr val="aecf00"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -3270,7 +2994,7 @@
               <a:solidFill>
                 <a:srgbClr val="4b1f6f"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -3281,18 +3005,16 @@
               <a:solidFill>
                 <a:srgbClr val="ff950e"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
           </c:dPt>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -3311,9 +3033,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -3332,9 +3053,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -3353,9 +3073,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -3374,9 +3093,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -3395,9 +3113,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -3416,9 +3133,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -3437,9 +3153,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -3458,9 +3173,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="8"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -3479,9 +3193,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -3499,7 +3212,7 @@
               <c:separator>; </c:separator>
             </c:dLbl>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -3600,7 +3313,7 @@
       </c:doughnutChart>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:solidFill>
             <a:srgbClr val="b3b3b3"/>
           </a:solidFill>
@@ -3612,7 +3325,7 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -3645,11 +3358,12 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:doughnutChart>
         <c:varyColors val="1"/>
@@ -3671,7 +3385,7 @@
             <a:solidFill>
               <a:srgbClr val="004586"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln w="0">
               <a:noFill/>
             </a:ln>
           </c:spPr>
@@ -3682,7 +3396,7 @@
               <a:solidFill>
                 <a:srgbClr val="004586"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -3693,7 +3407,7 @@
               <a:solidFill>
                 <a:srgbClr val="ff420e"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -3704,7 +3418,7 @@
               <a:solidFill>
                 <a:srgbClr val="ffd320"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -3715,7 +3429,7 @@
               <a:solidFill>
                 <a:srgbClr val="579d1c"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -3726,7 +3440,7 @@
               <a:solidFill>
                 <a:srgbClr val="7e0021"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -3737,7 +3451,7 @@
               <a:solidFill>
                 <a:srgbClr val="83caff"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -3748,7 +3462,7 @@
               <a:solidFill>
                 <a:srgbClr val="314004"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -3759,7 +3473,7 @@
               <a:solidFill>
                 <a:srgbClr val="aecf00"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -3770,7 +3484,7 @@
               <a:solidFill>
                 <a:srgbClr val="4b1f6f"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -3781,18 +3495,16 @@
               <a:solidFill>
                 <a:srgbClr val="ff950e"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
           </c:dPt>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -3811,9 +3523,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -3832,9 +3543,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -3853,9 +3563,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -3874,9 +3583,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -3895,9 +3603,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -3916,9 +3623,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -3937,9 +3643,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -3958,9 +3663,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="8"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -3979,9 +3683,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -3999,7 +3702,7 @@
               <c:separator>; </c:separator>
             </c:dLbl>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -4113,7 +3816,7 @@
             <a:solidFill>
               <a:srgbClr val="ff420e"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln w="0">
               <a:noFill/>
             </a:ln>
           </c:spPr>
@@ -4124,7 +3827,7 @@
               <a:solidFill>
                 <a:srgbClr val="004586"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -4135,7 +3838,7 @@
               <a:solidFill>
                 <a:srgbClr val="ff420e"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -4146,7 +3849,7 @@
               <a:solidFill>
                 <a:srgbClr val="ffd320"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -4157,7 +3860,7 @@
               <a:solidFill>
                 <a:srgbClr val="579d1c"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -4168,7 +3871,7 @@
               <a:solidFill>
                 <a:srgbClr val="7e0021"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -4179,7 +3882,7 @@
               <a:solidFill>
                 <a:srgbClr val="83caff"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -4190,7 +3893,7 @@
               <a:solidFill>
                 <a:srgbClr val="314004"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -4201,7 +3904,7 @@
               <a:solidFill>
                 <a:srgbClr val="aecf00"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -4212,7 +3915,7 @@
               <a:solidFill>
                 <a:srgbClr val="4b1f6f"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -4223,18 +3926,16 @@
               <a:solidFill>
                 <a:srgbClr val="ff950e"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
           </c:dPt>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -4253,9 +3954,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -4274,9 +3974,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -4295,9 +3994,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -4316,9 +4014,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -4337,9 +4034,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -4358,9 +4054,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -4379,9 +4074,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -4400,9 +4094,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="8"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -4421,9 +4114,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -4441,7 +4133,7 @@
               <c:separator>; </c:separator>
             </c:dLbl>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -4555,7 +4247,7 @@
             <a:solidFill>
               <a:srgbClr val="ffd320"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln w="0">
               <a:noFill/>
             </a:ln>
           </c:spPr>
@@ -4566,7 +4258,7 @@
               <a:solidFill>
                 <a:srgbClr val="004586"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -4577,7 +4269,7 @@
               <a:solidFill>
                 <a:srgbClr val="ff420e"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -4588,7 +4280,7 @@
               <a:solidFill>
                 <a:srgbClr val="ffd320"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -4599,7 +4291,7 @@
               <a:solidFill>
                 <a:srgbClr val="579d1c"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -4610,7 +4302,7 @@
               <a:solidFill>
                 <a:srgbClr val="7e0021"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -4621,7 +4313,7 @@
               <a:solidFill>
                 <a:srgbClr val="83caff"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -4632,7 +4324,7 @@
               <a:solidFill>
                 <a:srgbClr val="314004"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -4643,7 +4335,7 @@
               <a:solidFill>
                 <a:srgbClr val="aecf00"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -4654,7 +4346,7 @@
               <a:solidFill>
                 <a:srgbClr val="4b1f6f"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -4665,18 +4357,16 @@
               <a:solidFill>
                 <a:srgbClr val="ff950e"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
           </c:dPt>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -4695,9 +4385,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -4716,9 +4405,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -4737,9 +4425,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -4758,9 +4445,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -4779,9 +4465,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -4800,9 +4485,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -4821,9 +4505,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -4842,9 +4525,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="8"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -4863,9 +4545,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -4883,7 +4564,7 @@
               <c:separator>; </c:separator>
             </c:dLbl>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -4997,7 +4678,7 @@
             <a:solidFill>
               <a:srgbClr val="579d1c"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln w="0">
               <a:noFill/>
             </a:ln>
           </c:spPr>
@@ -5008,7 +4689,7 @@
               <a:solidFill>
                 <a:srgbClr val="004586"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -5019,7 +4700,7 @@
               <a:solidFill>
                 <a:srgbClr val="ff420e"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -5030,7 +4711,7 @@
               <a:solidFill>
                 <a:srgbClr val="ffd320"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -5041,7 +4722,7 @@
               <a:solidFill>
                 <a:srgbClr val="579d1c"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -5052,7 +4733,7 @@
               <a:solidFill>
                 <a:srgbClr val="7e0021"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -5063,7 +4744,7 @@
               <a:solidFill>
                 <a:srgbClr val="83caff"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -5074,7 +4755,7 @@
               <a:solidFill>
                 <a:srgbClr val="314004"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -5085,7 +4766,7 @@
               <a:solidFill>
                 <a:srgbClr val="aecf00"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -5096,7 +4777,7 @@
               <a:solidFill>
                 <a:srgbClr val="4b1f6f"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -5107,18 +4788,16 @@
               <a:solidFill>
                 <a:srgbClr val="ff950e"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
           </c:dPt>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -5137,9 +4816,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -5158,9 +4836,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -5179,9 +4856,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -5200,9 +4876,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -5221,9 +4896,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -5242,9 +4916,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -5263,9 +4936,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -5284,9 +4956,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="8"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -5305,9 +4976,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -5325,7 +4995,7 @@
               <c:separator>; </c:separator>
             </c:dLbl>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -5439,7 +5109,7 @@
             <a:solidFill>
               <a:srgbClr val="7e0021"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln w="0">
               <a:noFill/>
             </a:ln>
           </c:spPr>
@@ -5450,7 +5120,7 @@
               <a:solidFill>
                 <a:srgbClr val="004586"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -5461,7 +5131,7 @@
               <a:solidFill>
                 <a:srgbClr val="ff420e"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -5472,7 +5142,7 @@
               <a:solidFill>
                 <a:srgbClr val="ffd320"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -5483,7 +5153,7 @@
               <a:solidFill>
                 <a:srgbClr val="579d1c"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -5494,7 +5164,7 @@
               <a:solidFill>
                 <a:srgbClr val="7e0021"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -5505,7 +5175,7 @@
               <a:solidFill>
                 <a:srgbClr val="83caff"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -5516,7 +5186,7 @@
               <a:solidFill>
                 <a:srgbClr val="314004"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -5527,7 +5197,7 @@
               <a:solidFill>
                 <a:srgbClr val="aecf00"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -5538,7 +5208,7 @@
               <a:solidFill>
                 <a:srgbClr val="4b1f6f"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -5549,18 +5219,16 @@
               <a:solidFill>
                 <a:srgbClr val="ff950e"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="0">
                 <a:noFill/>
               </a:ln>
             </c:spPr>
           </c:dPt>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -5579,9 +5247,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -5600,9 +5267,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -5621,9 +5287,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -5642,9 +5307,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -5663,9 +5327,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -5684,9 +5347,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -5705,9 +5367,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -5726,9 +5387,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="8"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -5747,9 +5407,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -5767,7 +5426,7 @@
               <c:separator>; </c:separator>
             </c:dLbl>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -5868,7 +5527,7 @@
       </c:doughnutChart>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:solidFill>
             <a:srgbClr val="b3b3b3"/>
           </a:solidFill>
@@ -5880,7 +5539,7 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -5913,7 +5572,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5941,7 +5600,7 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -5957,14 +5616,13 @@
             <a:solidFill>
               <a:srgbClr val="004586"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln w="0">
               <a:noFill/>
             </a:ln>
           </c:spPr>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -5981,6 +5639,11 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -6057,11 +5720,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="92056849"/>
-        <c:axId val="42991463"/>
+        <c:axId val="8709040"/>
+        <c:axId val="29358305"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="92056849"/>
+        <c:axId val="8709040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6069,19 +5732,19 @@
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln>
+            <a:ln w="0">
               <a:solidFill>
                 <a:srgbClr val="b3b3b3"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln>
+          <a:ln w="0">
             <a:solidFill>
               <a:srgbClr val="b3b3b3"/>
             </a:solidFill>
@@ -6098,14 +5761,15 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42991463"/>
+        <c:crossAx val="29358305"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42991463"/>
+        <c:axId val="29358305"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6113,7 +5777,7 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln>
+            <a:ln w="0">
               <a:solidFill>
                 <a:srgbClr val="b3b3b3"/>
               </a:solidFill>
@@ -6125,7 +5789,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln>
+          <a:ln w="0">
             <a:solidFill>
               <a:srgbClr val="b3b3b3"/>
             </a:solidFill>
@@ -6142,12 +5806,274 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92056849"/>
+        <c:crossAx val="8709040"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="bg-BG" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" lang="bg-BG" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Free Spins Wins Histogram</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:areaChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="bg-BG" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Simulation Results'!$A$27:$S$27</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Simulation Results'!$A$28:$S$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="20846979"/>
+        <c:axId val="72333004"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="20846979"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="bg-BG" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="72333004"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="72333004"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="bg-BG" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="20846979"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
           <a:solidFill>
             <a:srgbClr val="b3b3b3"/>
           </a:solidFill>
@@ -6172,32 +6098,409 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>229680</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>105120</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>570240</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>141120</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>212040</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>160560</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name=""/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="3833640" y="105120"/>
-        <a:ext cx="6836760" cy="4912560"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="Image 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2225520" y="325080"/>
+          <a:ext cx="212040" cy="160560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>211680</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>160560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Image 2" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2225520" y="487800"/>
+          <a:ext cx="211680" cy="160200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>212040</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>160560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 3" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2225520" y="650160"/>
+          <a:ext cx="212040" cy="160560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>211680</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>160560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 4" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2225520" y="812880"/>
+          <a:ext cx="211680" cy="160200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>212040</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>160560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Image 5" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2225520" y="975240"/>
+          <a:ext cx="212040" cy="160560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>211680</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>160560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Image 6" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2225520" y="1137960"/>
+          <a:ext cx="211680" cy="160200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>212040</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>160560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Image 7" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2225520" y="1300320"/>
+          <a:ext cx="212040" cy="160560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>212040</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>160560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Image 8" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2225520" y="1463040"/>
+          <a:ext cx="212040" cy="160560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>211680</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>160560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Image 9" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2225520" y="1625760"/>
+          <a:ext cx="211680" cy="160200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>212040</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>160560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Image 10" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2225520" y="1788120"/>
+          <a:ext cx="212040" cy="160560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>212040</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>160560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Image 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2225520" y="162360"/>
+          <a:ext cx="212040" cy="160560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6207,25 +6510,25 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>789840</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>158400</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>229680</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>105120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>114840</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>126000</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>569880</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>140760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvPr id="11" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7496640" y="2596680"/>
-        <a:ext cx="5704200" cy="3218760"/>
+        <a:off x="3833640" y="105120"/>
+        <a:ext cx="6836400" cy="4912200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6249,18 +6552,18 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>114840</xdr:colOff>
+      <xdr:colOff>114480</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>126000</xdr:rowOff>
+      <xdr:rowOff>125640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvPr id="12" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="7496640" y="2596680"/>
-        <a:ext cx="5704200" cy="3218760"/>
+        <a:ext cx="5703840" cy="3218400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6277,6 +6580,41 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>789840</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>158400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>114480</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>125640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="7496640" y="2596680"/>
+        <a:ext cx="5703840" cy="3218400"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>288720</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -6284,18 +6622,18 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>792720</xdr:colOff>
+      <xdr:colOff>792360</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>10440</xdr:rowOff>
+      <xdr:rowOff>10080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvPr id="14" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="6487560" y="191880"/>
-        <a:ext cx="5752080" cy="3232080"/>
+        <a:ext cx="5754240" cy="3231720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6314,18 +6652,18 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>304200</xdr:colOff>
+      <xdr:colOff>303840</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>153360</xdr:rowOff>
+      <xdr:rowOff>153000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name=""/>
+        <xdr:cNvPr id="15" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="12508920" y="173160"/>
-        <a:ext cx="5765040" cy="3231360"/>
+        <a:off x="12512880" y="173160"/>
+        <a:ext cx="5773320" cy="3231000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6339,17 +6677,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="188.04"/>
@@ -6407,13 +6745,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -6421,7 +6759,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.66"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6516,14 +6854,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6531,7 +6869,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="8.79"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6544,13 +6882,16 @@
       <c r="C1" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" s="4" t="n">
         <v>0</v>
@@ -6558,10 +6899,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>1</v>
@@ -6570,10 +6911,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" s="4" t="n">
         <v>2</v>
@@ -6582,10 +6923,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>3</v>
@@ -6594,10 +6935,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" s="4" t="n">
         <v>4</v>
@@ -6605,10 +6946,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" s="4" t="n">
         <v>5</v>
@@ -6616,10 +6957,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="4" t="n">
         <v>6</v>
@@ -6627,10 +6968,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="4" t="n">
         <v>7</v>
@@ -6638,10 +6979,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="4" t="n">
         <v>8</v>
@@ -6649,10 +6990,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" s="4" t="n">
         <v>9</v>
@@ -6660,10 +7001,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" s="4" t="n">
         <v>10</v>
@@ -6677,17 +7018,18 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -6695,30 +7037,30 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="6.08"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="1" width="8.37"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="1" width="8.37"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6998,71 +7340,71 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="5" width="2.84"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="1" width="11.34"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="1" width="11.34"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7074,53 +7416,53 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7132,53 +7474,53 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7190,53 +7532,53 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7248,53 +7590,53 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7306,53 +7648,53 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7364,53 +7706,53 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7422,53 +7764,53 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7480,53 +7822,53 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7538,104 +7880,104 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7647,53 +7989,53 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7705,53 +8047,53 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7763,53 +8105,53 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7821,333 +8163,333 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -8162,13 +8504,13 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:W92"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -8181,7 +8523,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="7" width="14.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="14" style="5" width="7.19"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1000" min="24" style="5" width="11.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1004" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1004" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8194,34 +8536,34 @@
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="N1" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O1" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="S1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="T1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="U1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="V1" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="S1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>52</v>
-      </c>
       <c r="W1" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9653,13 +9995,13 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AD152"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -9686,34 +10028,34 @@
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="N1" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O1" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="S1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="T1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="U1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="V1" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="S1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>52</v>
-      </c>
       <c r="W1" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11382,17 +11724,17 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="2" style="0" width="17.09"/>
